--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVC-Api-GasMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MVC-Api-GasMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156D571-7E0D-4DBD-A947-1BA25BE5D7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Tạo thông tin đăng nhập</t>
   </si>
@@ -36,15 +35,9 @@
     <t>Lưu thông tin người dùng</t>
   </si>
   <si>
-    <t>Sửa thông tin người dùng</t>
-  </si>
-  <si>
     <t>Đổi pass</t>
   </si>
   <si>
-    <t>Lưu tên đăng nhập vào session</t>
-  </si>
-  <si>
     <t>Đăng nhập bằng facebook</t>
   </si>
   <si>
@@ -55,12 +48,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Lưu userID vào session</t>
+  </si>
+  <si>
+    <t>Load thông tin người dùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,12 +91,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,128 +377,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E1" s="1">
         <v>43979</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>43980</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>43981</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>43982</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>43983</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>43984</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>43985</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>43986</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>43987</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>43988</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>43989</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>43990</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>43991</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>43992</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Tạo thông tin đăng nhập</t>
   </si>
@@ -381,7 +381,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,6 +442,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -454,6 +457,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -475,11 +481,17 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MVC-Api-GasMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVC-Api-GasMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534473AA-7941-49DD-999B-40E4F21E1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Tạo thông tin đăng nhập</t>
   </si>
@@ -54,12 +55,21 @@
   </si>
   <si>
     <t>Load thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Tạo form khách hàng gọi gas</t>
+  </si>
+  <si>
+    <t>Xây dựng search text</t>
+  </si>
+  <si>
+    <t>Tạo thông tin dịch vụ gọi gas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,21 +387,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E1" s="1">
         <v>43979</v>
       </c>
@@ -435,7 +445,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -446,13 +456,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>9</v>
@@ -461,13 +474,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
@@ -476,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -485,7 +498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>5</v>
@@ -494,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>6</v>
@@ -503,21 +516,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A12:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
